--- a/data/pca/factorExposure/factorExposure_2015-04-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.02041294097923787</v>
+        <v>0.01149343408794541</v>
       </c>
       <c r="C2">
-        <v>0.02953189691353071</v>
+        <v>0.05539096856746543</v>
       </c>
       <c r="D2">
-        <v>0.127977493000163</v>
+        <v>-0.1260583493372736</v>
       </c>
       <c r="E2">
-        <v>-0.03138386509748577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.0325897451710637</v>
+      </c>
+      <c r="F2">
+        <v>0.02809826115831141</v>
+      </c>
+      <c r="G2">
+        <v>-0.05893702433017463</v>
+      </c>
+      <c r="H2">
+        <v>0.135227299229426</v>
+      </c>
+      <c r="I2">
+        <v>-0.05483386750094248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.0431508004277247</v>
+        <v>0.01660568796290207</v>
       </c>
       <c r="C4">
-        <v>0.07130437935641477</v>
+        <v>0.1065280807841887</v>
       </c>
       <c r="D4">
-        <v>0.09253193145166339</v>
+        <v>-0.1189723789502346</v>
       </c>
       <c r="E4">
-        <v>-0.1040325589369931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02231967456316908</v>
+      </c>
+      <c r="F4">
+        <v>0.09985110193289376</v>
+      </c>
+      <c r="G4">
+        <v>0.01660866126887818</v>
+      </c>
+      <c r="H4">
+        <v>0.04072007609072463</v>
+      </c>
+      <c r="I4">
+        <v>0.09350163387755192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02736727176163298</v>
+        <v>0.03177177052690228</v>
       </c>
       <c r="C6">
-        <v>0.01660000362786234</v>
+        <v>0.04009656295439917</v>
       </c>
       <c r="D6">
-        <v>0.1170882906184656</v>
+        <v>-0.1103164003706447</v>
       </c>
       <c r="E6">
-        <v>-0.06795608012065103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.07054712858208999</v>
+      </c>
+      <c r="F6">
+        <v>0.04425505508708032</v>
+      </c>
+      <c r="G6">
+        <v>0.03498995640375682</v>
+      </c>
+      <c r="H6">
+        <v>0.02153574595425267</v>
+      </c>
+      <c r="I6">
+        <v>0.00364572898029763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.001586553156667107</v>
+        <v>0.006199587722583532</v>
       </c>
       <c r="C7">
-        <v>0.02550844423788034</v>
+        <v>0.04051903608171929</v>
       </c>
       <c r="D7">
-        <v>0.1051125613739473</v>
+        <v>-0.09095171367720492</v>
       </c>
       <c r="E7">
-        <v>-0.03162377458606755</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05401944787525132</v>
+      </c>
+      <c r="F7">
+        <v>0.007801908531397631</v>
+      </c>
+      <c r="G7">
+        <v>0.06891807694485405</v>
+      </c>
+      <c r="H7">
+        <v>0.04996963721728102</v>
+      </c>
+      <c r="I7">
+        <v>0.05838036966632609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.002689102148981914</v>
+        <v>-0.006892398922890518</v>
       </c>
       <c r="C8">
-        <v>0.02917508640948245</v>
+        <v>0.03968087911498747</v>
       </c>
       <c r="D8">
-        <v>0.07757277076656242</v>
+        <v>-0.06644489012044966</v>
       </c>
       <c r="E8">
-        <v>-0.0443318461232306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.04023545397526433</v>
+      </c>
+      <c r="F8">
+        <v>0.04282522528573016</v>
+      </c>
+      <c r="G8">
+        <v>-0.04280655510655835</v>
+      </c>
+      <c r="H8">
+        <v>0.04235327763077665</v>
+      </c>
+      <c r="I8">
+        <v>0.03558600497195055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03270455691641807</v>
+        <v>0.0128305146893865</v>
       </c>
       <c r="C9">
-        <v>0.06349751453630781</v>
+        <v>0.08900628527303281</v>
       </c>
       <c r="D9">
-        <v>0.09743412336499091</v>
+        <v>-0.104228789757998</v>
       </c>
       <c r="E9">
-        <v>-0.08372589555801803</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01983245728878062</v>
+      </c>
+      <c r="F9">
+        <v>0.06700116200206374</v>
+      </c>
+      <c r="G9">
+        <v>0.04158284259088568</v>
+      </c>
+      <c r="H9">
+        <v>0.04283688203433769</v>
+      </c>
+      <c r="I9">
+        <v>0.0529611474823589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.183147645941461</v>
+        <v>0.2418357456008243</v>
       </c>
       <c r="C10">
-        <v>-0.163765103122739</v>
+        <v>-0.08749831933186518</v>
       </c>
       <c r="D10">
-        <v>-0.02252608929369764</v>
+        <v>0.01097542916887467</v>
       </c>
       <c r="E10">
-        <v>-0.03948557892736145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01731498283461659</v>
+      </c>
+      <c r="F10">
+        <v>0.03885369191707248</v>
+      </c>
+      <c r="G10">
+        <v>-0.01912930847599247</v>
+      </c>
+      <c r="H10">
+        <v>-0.009660641868657262</v>
+      </c>
+      <c r="I10">
+        <v>-0.01118748681783425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.01661339572031219</v>
+        <v>0.01041984535800138</v>
       </c>
       <c r="C11">
-        <v>0.04193670919684508</v>
+        <v>0.05849567117226034</v>
       </c>
       <c r="D11">
-        <v>0.04408416741134006</v>
+        <v>-0.0389031722173173</v>
       </c>
       <c r="E11">
-        <v>0.007813526625139452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02602639603761699</v>
+      </c>
+      <c r="F11">
+        <v>-0.01313613145698395</v>
+      </c>
+      <c r="G11">
+        <v>0.03796451660539201</v>
+      </c>
+      <c r="H11">
+        <v>0.02079971322273685</v>
+      </c>
+      <c r="I11">
+        <v>0.03888702429891749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01544780851206167</v>
+        <v>0.009958519420348933</v>
       </c>
       <c r="C12">
-        <v>0.04275143314661184</v>
+        <v>0.05120101515185499</v>
       </c>
       <c r="D12">
-        <v>0.0560403243635152</v>
+        <v>-0.04562995391751754</v>
       </c>
       <c r="E12">
-        <v>-0.003235072100147117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01958666716468602</v>
+      </c>
+      <c r="F12">
+        <v>-0.015213304745617</v>
+      </c>
+      <c r="G12">
+        <v>0.06112746774701902</v>
+      </c>
+      <c r="H12">
+        <v>0.03509342288289574</v>
+      </c>
+      <c r="I12">
+        <v>0.01394675825727635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.005824349396812846</v>
+        <v>0.002270636577315052</v>
       </c>
       <c r="C13">
-        <v>0.02658057451059884</v>
+        <v>0.05815008034889915</v>
       </c>
       <c r="D13">
-        <v>0.1213329508100614</v>
+        <v>-0.1552555870329592</v>
       </c>
       <c r="E13">
-        <v>-0.06235489122029185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04215514620267996</v>
+      </c>
+      <c r="F13">
+        <v>0.03322797280284498</v>
+      </c>
+      <c r="G13">
+        <v>0.03647418254514068</v>
+      </c>
+      <c r="H13">
+        <v>0.1004201600639886</v>
+      </c>
+      <c r="I13">
+        <v>-0.04445465354463885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.003757506398340891</v>
+        <v>0.002651026218424962</v>
       </c>
       <c r="C14">
-        <v>0.01969536223405551</v>
+        <v>0.03455990352039085</v>
       </c>
       <c r="D14">
-        <v>0.08075042589918077</v>
+        <v>-0.08987844118966545</v>
       </c>
       <c r="E14">
-        <v>-0.0269339271744586</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.06045916403537867</v>
+      </c>
+      <c r="F14">
+        <v>0.02431220613911152</v>
+      </c>
+      <c r="G14">
+        <v>0.07542992519793115</v>
+      </c>
+      <c r="H14">
+        <v>0.126209384141001</v>
+      </c>
+      <c r="I14">
+        <v>0.03125782097162038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.003397990183613002</v>
+        <v>-0.005174676645809906</v>
       </c>
       <c r="C15">
-        <v>0.01242828244482552</v>
+        <v>0.02843086184548208</v>
       </c>
       <c r="D15">
-        <v>0.0363222837760932</v>
+        <v>-0.0562749297711396</v>
       </c>
       <c r="E15">
-        <v>-0.003730254601526653</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.02211179228606878</v>
+      </c>
+      <c r="F15">
+        <v>0.005966785613421637</v>
+      </c>
+      <c r="G15">
+        <v>0.01349805570290029</v>
+      </c>
+      <c r="H15">
+        <v>0.05175601686745836</v>
+      </c>
+      <c r="I15">
+        <v>0.03392781159924849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.01570523149515064</v>
+        <v>0.009277585620838505</v>
       </c>
       <c r="C16">
-        <v>0.03858553365877122</v>
+        <v>0.05086427056448123</v>
       </c>
       <c r="D16">
-        <v>0.04945427138628004</v>
+        <v>-0.04117612646148663</v>
       </c>
       <c r="E16">
-        <v>-0.00378530573180497</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02643031896289449</v>
+      </c>
+      <c r="F16">
+        <v>-0.006775430475647269</v>
+      </c>
+      <c r="G16">
+        <v>0.04539860792130477</v>
+      </c>
+      <c r="H16">
+        <v>0.01762559347090753</v>
+      </c>
+      <c r="I16">
+        <v>0.02599958972882464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>2.29620805821459e-05</v>
+        <v>-0.002690780655878101</v>
       </c>
       <c r="C19">
-        <v>0.02158734644472268</v>
+        <v>0.01740875022269533</v>
       </c>
       <c r="D19">
-        <v>0.06729218315293893</v>
+        <v>-0.047487052329482</v>
       </c>
       <c r="E19">
-        <v>-0.03359011135145946</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.006565895962833836</v>
+      </c>
+      <c r="F19">
+        <v>0.0113567930021206</v>
+      </c>
+      <c r="G19">
+        <v>0.01107852141257236</v>
+      </c>
+      <c r="H19">
+        <v>0.04779464610605402</v>
+      </c>
+      <c r="I19">
+        <v>0.0001324033049194336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.0023252002851391</v>
+        <v>0.004516808643070192</v>
       </c>
       <c r="C20">
-        <v>0.02651673375791874</v>
+        <v>0.04291422545507304</v>
       </c>
       <c r="D20">
-        <v>0.06859767387041132</v>
+        <v>-0.0813487342687888</v>
       </c>
       <c r="E20">
-        <v>-0.04660086416520518</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02925119391464282</v>
+      </c>
+      <c r="F20">
+        <v>0.0260842549859035</v>
+      </c>
+      <c r="G20">
+        <v>0.046752799340897</v>
+      </c>
+      <c r="H20">
+        <v>0.02926995916407828</v>
+      </c>
+      <c r="I20">
+        <v>0.05419760288384239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.008311733632401357</v>
+        <v>0.004141759105932054</v>
       </c>
       <c r="C21">
-        <v>0.03196013632579249</v>
+        <v>0.05059448899231411</v>
       </c>
       <c r="D21">
-        <v>0.1222176457442062</v>
+        <v>-0.1178648197472778</v>
       </c>
       <c r="E21">
-        <v>-0.09917515827769748</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.037993346392712</v>
+      </c>
+      <c r="F21">
+        <v>0.08551215006154564</v>
+      </c>
+      <c r="G21">
+        <v>0.07507872712776643</v>
+      </c>
+      <c r="H21">
+        <v>0.1888084489880278</v>
+      </c>
+      <c r="I21">
+        <v>-0.01543400359930523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.001966345956434208</v>
+        <v>-0.01225389480714768</v>
       </c>
       <c r="C22">
-        <v>0.07093378978546029</v>
+        <v>0.09414599059875911</v>
       </c>
       <c r="D22">
-        <v>0.2969992280130924</v>
+        <v>-0.2716106057356856</v>
       </c>
       <c r="E22">
-        <v>-0.08609397492250581</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.08716185311301418</v>
+      </c>
+      <c r="F22">
+        <v>0.02442993595515872</v>
+      </c>
+      <c r="G22">
+        <v>-0.5316077190774898</v>
+      </c>
+      <c r="H22">
+        <v>-0.1460814740280082</v>
+      </c>
+      <c r="I22">
+        <v>-0.05557373327748632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.002383872371209798</v>
+        <v>-0.009024786324145362</v>
       </c>
       <c r="C23">
-        <v>0.07122212387326352</v>
+        <v>0.09592593107134161</v>
       </c>
       <c r="D23">
-        <v>0.2959753044030112</v>
+        <v>-0.2739112400162254</v>
       </c>
       <c r="E23">
-        <v>-0.08626112562408293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0820478105971699</v>
+      </c>
+      <c r="F23">
+        <v>0.0274842878994073</v>
+      </c>
+      <c r="G23">
+        <v>-0.5147175325603225</v>
+      </c>
+      <c r="H23">
+        <v>-0.1379215496965244</v>
+      </c>
+      <c r="I23">
+        <v>-0.05454039514378098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.02193558511665168</v>
+        <v>0.01021708105448082</v>
       </c>
       <c r="C24">
-        <v>0.05846526803959849</v>
+        <v>0.06785947673369506</v>
       </c>
       <c r="D24">
-        <v>0.05622705121005613</v>
+        <v>-0.04328652129848573</v>
       </c>
       <c r="E24">
-        <v>-0.003609641218881022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.03228728236077317</v>
+      </c>
+      <c r="F24">
+        <v>-0.005861908146147708</v>
+      </c>
+      <c r="G24">
+        <v>0.04816658679842646</v>
+      </c>
+      <c r="H24">
+        <v>0.04449654766220767</v>
+      </c>
+      <c r="I24">
+        <v>0.04035870797779732</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02231482948597473</v>
+        <v>0.01392243562231753</v>
       </c>
       <c r="C25">
-        <v>0.05074552358820208</v>
+        <v>0.06258429518739893</v>
       </c>
       <c r="D25">
-        <v>0.05484003554960887</v>
+        <v>-0.04757492446877711</v>
       </c>
       <c r="E25">
-        <v>-0.01107231661706292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01890652748014603</v>
+      </c>
+      <c r="F25">
+        <v>-0.004714001885508574</v>
+      </c>
+      <c r="G25">
+        <v>0.03684755192886269</v>
+      </c>
+      <c r="H25">
+        <v>0.01714403287427849</v>
+      </c>
+      <c r="I25">
+        <v>0.02433124822594123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.009924881609590258</v>
+        <v>0.01745138612008454</v>
       </c>
       <c r="C26">
-        <v>0.01623727098287286</v>
+        <v>0.02902006622039527</v>
       </c>
       <c r="D26">
-        <v>0.06245871796435899</v>
+        <v>-0.0552557856720495</v>
       </c>
       <c r="E26">
-        <v>-0.03477901306163489</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.0422667261167067</v>
+      </c>
+      <c r="F26">
+        <v>0.04291520830757568</v>
+      </c>
+      <c r="G26">
+        <v>0.04757838381040048</v>
+      </c>
+      <c r="H26">
+        <v>0.08818890622992495</v>
+      </c>
+      <c r="I26">
+        <v>0.03491312476247004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.266909894353653</v>
+        <v>0.3170876441166699</v>
       </c>
       <c r="C28">
-        <v>-0.1880918252901126</v>
+        <v>-0.08785195675225246</v>
       </c>
       <c r="D28">
-        <v>-0.009704718759915121</v>
+        <v>0.02621952946166534</v>
       </c>
       <c r="E28">
-        <v>-0.03525463830112214</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.04976122861285748</v>
+      </c>
+      <c r="F28">
+        <v>0.04238942706097266</v>
+      </c>
+      <c r="G28">
+        <v>-0.05794203452280869</v>
+      </c>
+      <c r="H28">
+        <v>0.03144700884928021</v>
+      </c>
+      <c r="I28">
+        <v>0.01045871148881499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.001841064913066552</v>
+        <v>0.00089646055756361</v>
       </c>
       <c r="C29">
-        <v>0.02390430309549779</v>
+        <v>0.04049031048310805</v>
       </c>
       <c r="D29">
-        <v>0.07640154927497812</v>
+        <v>-0.0914324934312639</v>
       </c>
       <c r="E29">
-        <v>-0.03614257196043319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.06767025558277404</v>
+      </c>
+      <c r="F29">
+        <v>0.02683459127841906</v>
+      </c>
+      <c r="G29">
+        <v>0.1007516134371556</v>
+      </c>
+      <c r="H29">
+        <v>0.1391698082360334</v>
+      </c>
+      <c r="I29">
+        <v>0.03466165367512742</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02469550656384088</v>
+        <v>0.01401261306328399</v>
       </c>
       <c r="C30">
-        <v>0.06996684256905587</v>
+        <v>0.09571630754396944</v>
       </c>
       <c r="D30">
-        <v>0.1435346379910871</v>
+        <v>-0.1271900042948557</v>
       </c>
       <c r="E30">
-        <v>-0.05085640889041357</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.06270992206039909</v>
+      </c>
+      <c r="F30">
+        <v>0.02103166932430517</v>
+      </c>
+      <c r="G30">
+        <v>0.01294476296698081</v>
+      </c>
+      <c r="H30">
+        <v>0.02932646988643709</v>
+      </c>
+      <c r="I30">
+        <v>0.06415972228665634</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.03480706531400691</v>
+        <v>0.007519647127914127</v>
       </c>
       <c r="C31">
-        <v>0.08502666520683333</v>
+        <v>0.09548170863223854</v>
       </c>
       <c r="D31">
-        <v>0.05595128947901837</v>
+        <v>-0.03700049205407765</v>
       </c>
       <c r="E31">
-        <v>-0.02310650362935782</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02174106326703782</v>
+      </c>
+      <c r="F31">
+        <v>0.0155434422813755</v>
+      </c>
+      <c r="G31">
+        <v>0.0214580435646816</v>
+      </c>
+      <c r="H31">
+        <v>0.03649958253724637</v>
+      </c>
+      <c r="I31">
+        <v>0.0225039623040306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01760232943175587</v>
+        <v>0.01250870038282602</v>
       </c>
       <c r="C32">
-        <v>0.03970259130399658</v>
+        <v>0.05366563704420683</v>
       </c>
       <c r="D32">
-        <v>0.06733490412720035</v>
+        <v>-0.07717780128520703</v>
       </c>
       <c r="E32">
-        <v>-0.05318577451959022</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.002959525249910813</v>
+      </c>
+      <c r="F32">
+        <v>0.04296599220345869</v>
+      </c>
+      <c r="G32">
+        <v>0.0268414849188088</v>
+      </c>
+      <c r="H32">
+        <v>0.06381292327013741</v>
+      </c>
+      <c r="I32">
+        <v>0.007418654061919456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.005885255385313662</v>
+        <v>0.005919732137460896</v>
       </c>
       <c r="C33">
-        <v>0.04202828153154318</v>
+        <v>0.06168183187134438</v>
       </c>
       <c r="D33">
-        <v>0.1126647178464658</v>
+        <v>-0.1147781834937539</v>
       </c>
       <c r="E33">
-        <v>-0.05458719161170853</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03652650213793241</v>
+      </c>
+      <c r="F33">
+        <v>0.02854984188252748</v>
+      </c>
+      <c r="G33">
+        <v>0.03244854133589678</v>
+      </c>
+      <c r="H33">
+        <v>0.04656250445957311</v>
+      </c>
+      <c r="I33">
+        <v>0.02471617080821625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.01987597785322961</v>
+        <v>0.008085056419119467</v>
       </c>
       <c r="C34">
-        <v>0.06012980609102653</v>
+        <v>0.06305291300633234</v>
       </c>
       <c r="D34">
-        <v>0.05465145442855257</v>
+        <v>-0.02640642569609059</v>
       </c>
       <c r="E34">
-        <v>0.03546819057598069</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02922258635369382</v>
+      </c>
+      <c r="F34">
+        <v>-0.03943046852950306</v>
+      </c>
+      <c r="G34">
+        <v>0.03640710635971021</v>
+      </c>
+      <c r="H34">
+        <v>0.0271726721211041</v>
+      </c>
+      <c r="I34">
+        <v>0.01746422389687772</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.003178392963705267</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01275185475372579</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03190656311388956</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.008134335515022021</v>
+      </c>
+      <c r="F35">
+        <v>0.01587006418412874</v>
+      </c>
+      <c r="G35">
+        <v>0.04115112206670656</v>
+      </c>
+      <c r="H35">
+        <v>0.04917501258528267</v>
+      </c>
+      <c r="I35">
+        <v>0.02411246401277037</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.006565063479865694</v>
+        <v>0.01123281844220644</v>
       </c>
       <c r="C36">
-        <v>0.009216212906793388</v>
+        <v>0.02407965238723978</v>
       </c>
       <c r="D36">
-        <v>0.06660928170228676</v>
+        <v>-0.06846170504290008</v>
       </c>
       <c r="E36">
-        <v>-0.05652372059554822</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.03465664409604527</v>
+      </c>
+      <c r="F36">
+        <v>0.04775094085981745</v>
+      </c>
+      <c r="G36">
+        <v>0.03397813545500213</v>
+      </c>
+      <c r="H36">
+        <v>0.05806629959319343</v>
+      </c>
+      <c r="I36">
+        <v>0.02615145292240694</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.007114208454577256</v>
+        <v>0.01031353252589483</v>
       </c>
       <c r="C38">
-        <v>0.009136255533487283</v>
+        <v>0.02751401554884583</v>
       </c>
       <c r="D38">
-        <v>0.07296478437760082</v>
+        <v>-0.0818835844695385</v>
       </c>
       <c r="E38">
-        <v>-0.01081262491616807</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.0123360408471698</v>
+      </c>
+      <c r="F38">
+        <v>0.0006062640434671316</v>
+      </c>
+      <c r="G38">
+        <v>0.005173795411397551</v>
+      </c>
+      <c r="H38">
+        <v>0.06130792567498022</v>
+      </c>
+      <c r="I38">
+        <v>0.06352493417122096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01477100508892465</v>
+        <v>0.003986504070976552</v>
       </c>
       <c r="C39">
-        <v>0.06137891054356347</v>
+        <v>0.08115957350140224</v>
       </c>
       <c r="D39">
-        <v>0.1000522257504754</v>
+        <v>-0.08656769568052229</v>
       </c>
       <c r="E39">
-        <v>-0.0114907281394576</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.05731547993828389</v>
+      </c>
+      <c r="F39">
+        <v>-0.006569063622041874</v>
+      </c>
+      <c r="G39">
+        <v>0.07132437628567743</v>
+      </c>
+      <c r="H39">
+        <v>0.06712359778803278</v>
+      </c>
+      <c r="I39">
+        <v>0.05046977247908507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01831981139657399</v>
+        <v>0.01425678380732854</v>
       </c>
       <c r="C40">
-        <v>0.02366460881847935</v>
+        <v>0.04358122385580118</v>
       </c>
       <c r="D40">
-        <v>0.1081155144391029</v>
+        <v>-0.09057745320172486</v>
       </c>
       <c r="E40">
-        <v>-0.004239493617122619</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.055993997065128</v>
+      </c>
+      <c r="F40">
+        <v>-0.03075689305445989</v>
+      </c>
+      <c r="G40">
+        <v>-0.006315447244023923</v>
+      </c>
+      <c r="H40">
+        <v>0.09926687033885262</v>
+      </c>
+      <c r="I40">
+        <v>-0.004337041329126493</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.00933492332994274</v>
+        <v>0.01594565911340941</v>
       </c>
       <c r="C41">
-        <v>0.005545754918637503</v>
+        <v>0.02095275178707311</v>
       </c>
       <c r="D41">
-        <v>0.03178184731217631</v>
+        <v>-0.04150638848251533</v>
       </c>
       <c r="E41">
-        <v>-0.0284074122295645</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.004334120932150999</v>
+      </c>
+      <c r="F41">
+        <v>0.02326318936052411</v>
+      </c>
+      <c r="G41">
+        <v>0.01699641762468351</v>
+      </c>
+      <c r="H41">
+        <v>0.03791894433831437</v>
+      </c>
+      <c r="I41">
+        <v>0.02308838372132166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.0004570656341152479</v>
+        <v>0.008035990519926662</v>
       </c>
       <c r="C43">
-        <v>0.004732504720780874</v>
+        <v>0.01724012620142254</v>
       </c>
       <c r="D43">
-        <v>0.04893876594082582</v>
+        <v>-0.0505789310737659</v>
       </c>
       <c r="E43">
-        <v>-0.02570007057259527</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01313036707008759</v>
+      </c>
+      <c r="F43">
+        <v>0.02187059590424555</v>
+      </c>
+      <c r="G43">
+        <v>0.02470246341249056</v>
+      </c>
+      <c r="H43">
+        <v>0.04491179993946755</v>
+      </c>
+      <c r="I43">
+        <v>0.04299443741861345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.02003564329905511</v>
+        <v>0.01106624957593831</v>
       </c>
       <c r="C44">
-        <v>0.02481453046261959</v>
+        <v>0.04918501099102292</v>
       </c>
       <c r="D44">
-        <v>0.08055963544865105</v>
+        <v>-0.09905004051383627</v>
       </c>
       <c r="E44">
-        <v>-0.05984656503818909</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.04483253148748175</v>
+      </c>
+      <c r="F44">
+        <v>0.03574364439134574</v>
+      </c>
+      <c r="G44">
+        <v>0.006759713351032236</v>
+      </c>
+      <c r="H44">
+        <v>0.06222813117259966</v>
+      </c>
+      <c r="I44">
+        <v>0.04585132769933067</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.006254020906695842</v>
+        <v>-0.0008954449147636911</v>
       </c>
       <c r="C46">
-        <v>0.03233216914518165</v>
+        <v>0.0442497096567918</v>
       </c>
       <c r="D46">
-        <v>0.07245777787325736</v>
+        <v>-0.06695790595263203</v>
       </c>
       <c r="E46">
-        <v>-0.02959900311804649</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04899858283792387</v>
+      </c>
+      <c r="F46">
+        <v>0.02860094366881114</v>
+      </c>
+      <c r="G46">
+        <v>0.06037929170841751</v>
+      </c>
+      <c r="H46">
+        <v>0.109379927781295</v>
+      </c>
+      <c r="I46">
+        <v>0.05511219398466524</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.07525665269541232</v>
+        <v>0.03033613499335236</v>
       </c>
       <c r="C47">
-        <v>0.1095816184825389</v>
+        <v>0.1284845750114596</v>
       </c>
       <c r="D47">
-        <v>0.04210706363796463</v>
+        <v>-0.01893787808744285</v>
       </c>
       <c r="E47">
-        <v>-0.01664532311245591</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.009997226692360389</v>
+      </c>
+      <c r="F47">
+        <v>-0.004784938522434188</v>
+      </c>
+      <c r="G47">
+        <v>0.05692192335356925</v>
+      </c>
+      <c r="H47">
+        <v>0.01834872933797149</v>
+      </c>
+      <c r="I47">
+        <v>0.03184223292880455</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.009089581798958515</v>
+        <v>0.01456245387487382</v>
       </c>
       <c r="C48">
-        <v>0.01958161892169777</v>
+        <v>0.03528114895254917</v>
       </c>
       <c r="D48">
-        <v>0.06067482625830394</v>
+        <v>-0.07017841044336216</v>
       </c>
       <c r="E48">
-        <v>-0.05404956870225751</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02476446354502323</v>
+      </c>
+      <c r="F48">
+        <v>0.05345084585364825</v>
+      </c>
+      <c r="G48">
+        <v>0.05069629308275592</v>
+      </c>
+      <c r="H48">
+        <v>0.09201702544198638</v>
+      </c>
+      <c r="I48">
+        <v>0.05411599258961795</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.03147123309191403</v>
+        <v>0.01243960749248726</v>
       </c>
       <c r="C50">
-        <v>0.05933511754023216</v>
+        <v>0.07689685956741625</v>
       </c>
       <c r="D50">
-        <v>0.05502190359162995</v>
+        <v>-0.04534019169163687</v>
       </c>
       <c r="E50">
-        <v>-0.01357150801368555</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01740586563788909</v>
+      </c>
+      <c r="F50">
+        <v>0.00764649691875839</v>
+      </c>
+      <c r="G50">
+        <v>0.00846661111635609</v>
+      </c>
+      <c r="H50">
+        <v>0.02312362587262445</v>
+      </c>
+      <c r="I50">
+        <v>0.0289391870897135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.002145545285075336</v>
+        <v>-0.0005929920236780195</v>
       </c>
       <c r="C51">
-        <v>0.006139091626450852</v>
+        <v>0.01813511338446211</v>
       </c>
       <c r="D51">
-        <v>0.04829103847129694</v>
+        <v>-0.04845531021194589</v>
       </c>
       <c r="E51">
-        <v>-0.02240568092742601</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03986558463708944</v>
+      </c>
+      <c r="F51">
+        <v>0.03495275997674127</v>
+      </c>
+      <c r="G51">
+        <v>0.009688684174158161</v>
+      </c>
+      <c r="H51">
+        <v>0.07179503789748856</v>
+      </c>
+      <c r="I51">
+        <v>0.01333378159299117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1056055964670657</v>
+        <v>0.05350860568836489</v>
       </c>
       <c r="C53">
-        <v>0.1284575093366107</v>
+        <v>0.1593054776311063</v>
       </c>
       <c r="D53">
-        <v>-0.01391677844371465</v>
+        <v>0.02470665381681547</v>
       </c>
       <c r="E53">
-        <v>-0.03817580357955513</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03005285209535399</v>
+      </c>
+      <c r="F53">
+        <v>0.04378169986789893</v>
+      </c>
+      <c r="G53">
+        <v>0.008643719088659555</v>
+      </c>
+      <c r="H53">
+        <v>0.009358952513507917</v>
+      </c>
+      <c r="I53">
+        <v>0.0156783632926005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01045248055113307</v>
+        <v>0.01096010524116925</v>
       </c>
       <c r="C54">
-        <v>0.02352946189110165</v>
+        <v>0.04099374846570583</v>
       </c>
       <c r="D54">
-        <v>0.08234631879412485</v>
+        <v>-0.07572897751281762</v>
       </c>
       <c r="E54">
-        <v>-0.01492459410354123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.02424494471306968</v>
+      </c>
+      <c r="F54">
+        <v>0.002207461028738707</v>
+      </c>
+      <c r="G54">
+        <v>0.02781490584435505</v>
+      </c>
+      <c r="H54">
+        <v>0.06545289829016859</v>
+      </c>
+      <c r="I54">
+        <v>0.05693206259860416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09127237740321352</v>
+        <v>0.04067672118192153</v>
       </c>
       <c r="C55">
-        <v>0.1089484475578243</v>
+        <v>0.1311126312971587</v>
       </c>
       <c r="D55">
-        <v>0.002150083991559212</v>
+        <v>0.03960483398824121</v>
       </c>
       <c r="E55">
-        <v>0.002632614926593884</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.005988423612331772</v>
+      </c>
+      <c r="F55">
+        <v>0.002786171897011436</v>
+      </c>
+      <c r="G55">
+        <v>0.001483306930592328</v>
+      </c>
+      <c r="H55">
+        <v>0.006187676360454619</v>
+      </c>
+      <c r="I55">
+        <v>-0.007756546326513633</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1305191466613191</v>
+        <v>0.05517546142318962</v>
       </c>
       <c r="C56">
-        <v>0.1501472214254505</v>
+        <v>0.1906439119022015</v>
       </c>
       <c r="D56">
-        <v>0.001629240940244635</v>
+        <v>0.04230196699817622</v>
       </c>
       <c r="E56">
-        <v>0.01197708256767946</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.02941987225900655</v>
+      </c>
+      <c r="F56">
+        <v>0.004995176963832572</v>
+      </c>
+      <c r="G56">
+        <v>-0.03531977270500791</v>
+      </c>
+      <c r="H56">
+        <v>0.03529445019683665</v>
+      </c>
+      <c r="I56">
+        <v>0.006532135275940063</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.008226410484461278</v>
+        <v>0.003063863035560398</v>
       </c>
       <c r="C58">
-        <v>0.0172870046151953</v>
+        <v>0.06286491529959071</v>
       </c>
       <c r="D58">
-        <v>0.2062351269793433</v>
+        <v>-0.2833267224508034</v>
       </c>
       <c r="E58">
-        <v>-0.1407792551393658</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.04198954362433018</v>
+      </c>
+      <c r="F58">
+        <v>0.1290741420920073</v>
+      </c>
+      <c r="G58">
+        <v>-0.1594360207445571</v>
+      </c>
+      <c r="H58">
+        <v>0.001010026296563564</v>
+      </c>
+      <c r="I58">
+        <v>0.04159498834319381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1865168644471605</v>
+        <v>0.2541610610329391</v>
       </c>
       <c r="C59">
-        <v>-0.1369148102284647</v>
+        <v>-0.05633312044607316</v>
       </c>
       <c r="D59">
-        <v>0.03464803865370911</v>
+        <v>-0.04858298476176037</v>
       </c>
       <c r="E59">
-        <v>-0.02804429679719717</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02185535820805794</v>
+      </c>
+      <c r="F59">
+        <v>0.02153106455109478</v>
+      </c>
+      <c r="G59">
+        <v>-0.01374459796527616</v>
+      </c>
+      <c r="H59">
+        <v>0.0212194052423819</v>
+      </c>
+      <c r="I59">
+        <v>-0.03078390510346329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1815731031879779</v>
+        <v>0.1503825539763635</v>
       </c>
       <c r="C60">
-        <v>0.1044723292956335</v>
+        <v>0.1730386516119137</v>
       </c>
       <c r="D60">
-        <v>0.2289130576163097</v>
+        <v>-0.08344775598063832</v>
       </c>
       <c r="E60">
-        <v>0.02645438879931765</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1473238819820938</v>
+      </c>
+      <c r="F60">
+        <v>-0.1889521029715898</v>
+      </c>
+      <c r="G60">
+        <v>0.1007459499172308</v>
+      </c>
+      <c r="H60">
+        <v>-0.2790221003645972</v>
+      </c>
+      <c r="I60">
+        <v>-0.2007152967604556</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02390208481434388</v>
+        <v>0.01105967259496448</v>
       </c>
       <c r="C61">
-        <v>0.05608635318858009</v>
+        <v>0.07727685205133925</v>
       </c>
       <c r="D61">
-        <v>0.0798140739114918</v>
+        <v>-0.0684920769937748</v>
       </c>
       <c r="E61">
-        <v>-0.003747687182235689</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.04135525508244715</v>
+      </c>
+      <c r="F61">
+        <v>-0.01511045268162106</v>
+      </c>
+      <c r="G61">
+        <v>0.07149154657287281</v>
+      </c>
+      <c r="H61">
+        <v>0.04922584943913285</v>
+      </c>
+      <c r="I61">
+        <v>0.0329769913347732</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.01002184960166122</v>
+        <v>0.009857710019108358</v>
       </c>
       <c r="C63">
-        <v>0.02743661293075713</v>
+        <v>0.04123668316082236</v>
       </c>
       <c r="D63">
-        <v>0.07793772949005716</v>
+        <v>-0.0552336626228016</v>
       </c>
       <c r="E63">
-        <v>-0.03065718521269442</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05880216244944848</v>
+      </c>
+      <c r="F63">
+        <v>0.0210520325599489</v>
+      </c>
+      <c r="G63">
+        <v>0.0399587570416075</v>
+      </c>
+      <c r="H63">
+        <v>0.05834208988527956</v>
+      </c>
+      <c r="I63">
+        <v>0.04053880895007313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05390937119011281</v>
+        <v>0.0151456398787431</v>
       </c>
       <c r="C64">
-        <v>0.08628877406906044</v>
+        <v>0.1021596681049227</v>
       </c>
       <c r="D64">
-        <v>0.01374144457028491</v>
+        <v>-0.009772048264739637</v>
       </c>
       <c r="E64">
-        <v>-0.0230529620948308</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02269298622208611</v>
+      </c>
+      <c r="F64">
+        <v>0.01907074576653652</v>
+      </c>
+      <c r="G64">
+        <v>0.04714107540717493</v>
+      </c>
+      <c r="H64">
+        <v>0.01677629942278283</v>
+      </c>
+      <c r="I64">
+        <v>0.0491254511037294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02531033625567511</v>
+        <v>0.02300887544891749</v>
       </c>
       <c r="C65">
-        <v>0.02047588226547897</v>
+        <v>0.04809520446533658</v>
       </c>
       <c r="D65">
-        <v>0.1038796439373698</v>
+        <v>-0.1067998709870662</v>
       </c>
       <c r="E65">
-        <v>-0.03261628004345364</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.05345123609808922</v>
+      </c>
+      <c r="F65">
+        <v>-0.005280048745267387</v>
+      </c>
+      <c r="G65">
+        <v>0.03773294472949634</v>
+      </c>
+      <c r="H65">
+        <v>-0.02831077892744934</v>
+      </c>
+      <c r="I65">
+        <v>0.03063483363224568</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02045443057991286</v>
+        <v>0.001378901647716673</v>
       </c>
       <c r="C66">
-        <v>0.07194026757367963</v>
+        <v>0.1009856758159612</v>
       </c>
       <c r="D66">
-        <v>0.1193500542262879</v>
+        <v>-0.1146094643591709</v>
       </c>
       <c r="E66">
-        <v>-0.01294465813675661</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.05148541790130636</v>
+      </c>
+      <c r="F66">
+        <v>-0.008029887697533612</v>
+      </c>
+      <c r="G66">
+        <v>0.03812177781397696</v>
+      </c>
+      <c r="H66">
+        <v>0.05505693484551331</v>
+      </c>
+      <c r="I66">
+        <v>0.04340860904228341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02387362796121851</v>
+        <v>0.01989487458504173</v>
       </c>
       <c r="C67">
-        <v>0.02189386378346542</v>
+        <v>0.03755376812982562</v>
       </c>
       <c r="D67">
-        <v>0.04102144119622595</v>
+        <v>-0.03998972697881631</v>
       </c>
       <c r="E67">
-        <v>0.02084874068986796</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.0150813525700074</v>
+      </c>
+      <c r="F67">
+        <v>-0.02858947816042115</v>
+      </c>
+      <c r="G67">
+        <v>0.01943361979171871</v>
+      </c>
+      <c r="H67">
+        <v>0.05031869037044773</v>
+      </c>
+      <c r="I67">
+        <v>0.05216095119246527</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2091232763478597</v>
+        <v>0.2780307046567227</v>
       </c>
       <c r="C68">
-        <v>-0.1487031331184854</v>
+        <v>-0.06252190866461578</v>
       </c>
       <c r="D68">
-        <v>0.02853797431122694</v>
+        <v>-0.0287961961294028</v>
       </c>
       <c r="E68">
-        <v>-0.0236793878477354</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.0004012795548111866</v>
+      </c>
+      <c r="F68">
+        <v>0.02209420810694637</v>
+      </c>
+      <c r="G68">
+        <v>-0.08063670144389307</v>
+      </c>
+      <c r="H68">
+        <v>-0.008177600276429071</v>
+      </c>
+      <c r="I68">
+        <v>-0.01269870450970026</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.05257232904249564</v>
+        <v>0.0148152657021538</v>
       </c>
       <c r="C69">
-        <v>0.1194240157817955</v>
+        <v>0.1183942173766273</v>
       </c>
       <c r="D69">
-        <v>0.06676025786041966</v>
+        <v>-0.02035183694463292</v>
       </c>
       <c r="E69">
-        <v>-0.01468175140964943</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01055598165769292</v>
+      </c>
+      <c r="F69">
+        <v>-0.01224082571056013</v>
+      </c>
+      <c r="G69">
+        <v>0.03772212676817002</v>
+      </c>
+      <c r="H69">
+        <v>0.01968254611943863</v>
+      </c>
+      <c r="I69">
+        <v>0.01527566987580366</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.217834419231477</v>
+        <v>0.2774177836662902</v>
       </c>
       <c r="C71">
-        <v>-0.170763227298877</v>
+        <v>-0.07818112502024843</v>
       </c>
       <c r="D71">
-        <v>0.01836869094031629</v>
+        <v>-0.01457784173730507</v>
       </c>
       <c r="E71">
-        <v>-0.01151353863401164</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.00198170752888401</v>
+      </c>
+      <c r="F71">
+        <v>0.0135954030407249</v>
+      </c>
+      <c r="G71">
+        <v>-0.03004786407189376</v>
+      </c>
+      <c r="H71">
+        <v>0.01044296113278172</v>
+      </c>
+      <c r="I71">
+        <v>0.007402750507411745</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.09921426804417353</v>
+        <v>0.05820882522330785</v>
       </c>
       <c r="C72">
-        <v>0.07600529558838007</v>
+        <v>0.1269216049829861</v>
       </c>
       <c r="D72">
-        <v>0.1254702993371687</v>
+        <v>-0.06093619715608221</v>
       </c>
       <c r="E72">
-        <v>-0.0145785572481738</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.07416143094737047</v>
+      </c>
+      <c r="F72">
+        <v>-0.02171242760562797</v>
+      </c>
+      <c r="G72">
+        <v>0.06858835769237977</v>
+      </c>
+      <c r="H72">
+        <v>0.003243255583865957</v>
+      </c>
+      <c r="I72">
+        <v>0.01600542240366566</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1707518741781436</v>
+        <v>0.141948385409033</v>
       </c>
       <c r="C73">
-        <v>0.07455565856924631</v>
+        <v>0.1540383954911346</v>
       </c>
       <c r="D73">
-        <v>0.2870301335901956</v>
+        <v>-0.09564738744006428</v>
       </c>
       <c r="E73">
-        <v>0.06291461881342354</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2670453932169456</v>
+      </c>
+      <c r="F73">
+        <v>-0.2701034306979879</v>
+      </c>
+      <c r="G73">
+        <v>0.2710553893458434</v>
+      </c>
+      <c r="H73">
+        <v>-0.3396755338990555</v>
+      </c>
+      <c r="I73">
+        <v>-0.1509678554831084</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1037635069286429</v>
+        <v>0.05117955207386795</v>
       </c>
       <c r="C74">
-        <v>0.1185669885346572</v>
+        <v>0.1442688895614213</v>
       </c>
       <c r="D74">
-        <v>-0.03860987177395888</v>
+        <v>0.05081345957808679</v>
       </c>
       <c r="E74">
-        <v>-0.02427358271998992</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01336634759894691</v>
+      </c>
+      <c r="F74">
+        <v>0.02865831424457081</v>
+      </c>
+      <c r="G74">
+        <v>-0.005893408793782723</v>
+      </c>
+      <c r="H74">
+        <v>-0.0212954374824972</v>
+      </c>
+      <c r="I74">
+        <v>-0.01310398943044971</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2222667145059372</v>
+        <v>0.09698265390029732</v>
       </c>
       <c r="C75">
-        <v>0.2059400290227718</v>
+        <v>0.2665476848112128</v>
       </c>
       <c r="D75">
-        <v>-0.08936846938064072</v>
+        <v>0.1316551181861357</v>
       </c>
       <c r="E75">
-        <v>0.08426444533728604</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09448716045196397</v>
+      </c>
+      <c r="F75">
+        <v>-0.04553736955043355</v>
+      </c>
+      <c r="G75">
+        <v>-0.08805945233983747</v>
+      </c>
+      <c r="H75">
+        <v>0.05252399356528147</v>
+      </c>
+      <c r="I75">
+        <v>0.07500011946885893</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1326744462576225</v>
+        <v>0.05597966239896229</v>
       </c>
       <c r="C76">
-        <v>0.1410438649583065</v>
+        <v>0.1790192438343453</v>
       </c>
       <c r="D76">
-        <v>-0.0001479962188936718</v>
+        <v>0.05193295290963118</v>
       </c>
       <c r="E76">
-        <v>0.01440026831302276</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02163957838845107</v>
+      </c>
+      <c r="F76">
+        <v>-0.002791406719473304</v>
+      </c>
+      <c r="G76">
+        <v>-0.02265103565206159</v>
+      </c>
+      <c r="H76">
+        <v>0.04481029245751111</v>
+      </c>
+      <c r="I76">
+        <v>0.02801875478613868</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.01545701209173967</v>
+        <v>0.001447305204339241</v>
       </c>
       <c r="C77">
-        <v>0.06880345506399868</v>
+        <v>0.1111084096557135</v>
       </c>
       <c r="D77">
-        <v>-0.02774525863528643</v>
+        <v>-0.3671164294104493</v>
       </c>
       <c r="E77">
-        <v>0.01164020290684098</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.8366665848512796</v>
+      </c>
+      <c r="F77">
+        <v>-0.1881958781209822</v>
+      </c>
+      <c r="G77">
+        <v>0.09555740296886933</v>
+      </c>
+      <c r="H77">
+        <v>-0.2022688178396856</v>
+      </c>
+      <c r="I77">
+        <v>-0.03548537569288242</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.0291032323284895</v>
+        <v>0.01734038638265794</v>
       </c>
       <c r="C78">
-        <v>0.0747407830147199</v>
+        <v>0.09342651928747218</v>
       </c>
       <c r="D78">
-        <v>0.1363377048997307</v>
+        <v>-0.1009943187352082</v>
       </c>
       <c r="E78">
-        <v>-0.06934582413927569</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06372759154568766</v>
+      </c>
+      <c r="F78">
+        <v>0.04938739841711811</v>
+      </c>
+      <c r="G78">
+        <v>-0.01106588870405484</v>
+      </c>
+      <c r="H78">
+        <v>0.07619461541962549</v>
+      </c>
+      <c r="I78">
+        <v>-0.02846693069938375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.1003015186391774</v>
+        <v>0.03803410145292659</v>
       </c>
       <c r="C79">
-        <v>0.1926728981919753</v>
+        <v>0.2018812859529391</v>
       </c>
       <c r="D79">
-        <v>-0.3552065961968888</v>
+        <v>0.1142918534143431</v>
       </c>
       <c r="E79">
-        <v>-0.8357304747243024</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.08116034180143607</v>
+      </c>
+      <c r="F79">
+        <v>0.8113040034415134</v>
+      </c>
+      <c r="G79">
+        <v>0.1708499001724612</v>
+      </c>
+      <c r="H79">
+        <v>-0.3762738446582469</v>
+      </c>
+      <c r="I79">
+        <v>-0.1005024946936954</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.004318707241652109</v>
+        <v>0.006062353043355722</v>
       </c>
       <c r="C80">
-        <v>0.04575638804706804</v>
+        <v>0.04543334108097323</v>
       </c>
       <c r="D80">
-        <v>0.05126521818611277</v>
+        <v>-0.03645039629422792</v>
       </c>
       <c r="E80">
-        <v>-0.008008734622960048</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04716531005487385</v>
+      </c>
+      <c r="F80">
+        <v>-0.001678885262130681</v>
+      </c>
+      <c r="G80">
+        <v>0.01778796604064616</v>
+      </c>
+      <c r="H80">
+        <v>0.04896058279817539</v>
+      </c>
+      <c r="I80">
+        <v>-0.07607002790394669</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1134745660564235</v>
+        <v>0.04033988893458934</v>
       </c>
       <c r="C81">
-        <v>0.1369940757490707</v>
+        <v>0.1644017120594297</v>
       </c>
       <c r="D81">
-        <v>-0.08501104955976116</v>
+        <v>0.08071993026576743</v>
       </c>
       <c r="E81">
-        <v>-0.004813334503213016</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04975887408699683</v>
+      </c>
+      <c r="F81">
+        <v>0.05314714751435139</v>
+      </c>
+      <c r="G81">
+        <v>-0.02520435991909087</v>
+      </c>
+      <c r="H81">
+        <v>0.08848595424554574</v>
+      </c>
+      <c r="I81">
+        <v>0.01593681777151735</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2359260105649672</v>
+        <v>0.08344515962294642</v>
       </c>
       <c r="C82">
-        <v>0.2985356754716396</v>
+        <v>0.309803852786968</v>
       </c>
       <c r="D82">
-        <v>-0.1616373186667228</v>
+        <v>0.238759114931717</v>
       </c>
       <c r="E82">
-        <v>0.229387744351244</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.07161452110741838</v>
+      </c>
+      <c r="F82">
+        <v>-0.1310907093762086</v>
+      </c>
+      <c r="G82">
+        <v>-0.04383975962213902</v>
+      </c>
+      <c r="H82">
+        <v>0.1419729934658545</v>
+      </c>
+      <c r="I82">
+        <v>0.03021183965749137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.01136767947861834</v>
+        <v>-0.01256968116072115</v>
       </c>
       <c r="C83">
-        <v>0.05340034636317836</v>
+        <v>0.02182968922846842</v>
       </c>
       <c r="D83">
-        <v>-0.004556098139759344</v>
+        <v>-0.02306853905558606</v>
       </c>
       <c r="E83">
-        <v>-0.02667505617391484</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.08968625809208758</v>
+      </c>
+      <c r="F83">
+        <v>0.06336767972397182</v>
+      </c>
+      <c r="G83">
+        <v>0.01523869376136905</v>
+      </c>
+      <c r="H83">
+        <v>0.3835940780372409</v>
+      </c>
+      <c r="I83">
+        <v>-0.851769122147099</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.000223355760808268</v>
+        <v>-0.004884892102069011</v>
       </c>
       <c r="C84">
-        <v>-0.001546750564766484</v>
+        <v>0.01746954710360155</v>
       </c>
       <c r="D84">
-        <v>-0.0004444450797134791</v>
+        <v>-0.04093629300480013</v>
       </c>
       <c r="E84">
-        <v>0.0025969644800014</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.003449569218043254</v>
+      </c>
+      <c r="F84">
+        <v>0.02870221140625533</v>
+      </c>
+      <c r="G84">
+        <v>-0.0294553649957366</v>
+      </c>
+      <c r="H84">
+        <v>0.04653364467222467</v>
+      </c>
+      <c r="I84">
+        <v>0.07181632342935246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1367790283233038</v>
+        <v>0.05277820127356567</v>
       </c>
       <c r="C85">
-        <v>0.1455293447295575</v>
+        <v>0.1800247560071001</v>
       </c>
       <c r="D85">
-        <v>-0.05840999579655837</v>
+        <v>0.1072833023291834</v>
       </c>
       <c r="E85">
-        <v>-0.03382211438077553</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.00386877397539645</v>
+      </c>
+      <c r="F85">
+        <v>0.06553705471510864</v>
+      </c>
+      <c r="G85">
+        <v>-0.03020845946866865</v>
+      </c>
+      <c r="H85">
+        <v>0.001394009063733299</v>
+      </c>
+      <c r="I85">
+        <v>0.01050665599434757</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01992993900964746</v>
+        <v>0.01519478818951693</v>
       </c>
       <c r="C86">
-        <v>0.01206599082588912</v>
+        <v>0.04150343670182934</v>
       </c>
       <c r="D86">
-        <v>0.08520047477319344</v>
+        <v>-0.1082665827207824</v>
       </c>
       <c r="E86">
-        <v>-0.02822817711629964</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01792868502247095</v>
+      </c>
+      <c r="F86">
+        <v>0.01527228956618162</v>
+      </c>
+      <c r="G86">
+        <v>0.01740428165604626</v>
+      </c>
+      <c r="H86">
+        <v>-0.01554420223705933</v>
+      </c>
+      <c r="I86">
+        <v>0.02695415222240415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02122612019180136</v>
+        <v>0.01016473923713647</v>
       </c>
       <c r="C87">
-        <v>0.03174832090704902</v>
+        <v>0.0654739040127941</v>
       </c>
       <c r="D87">
-        <v>0.1168023987954337</v>
+        <v>-0.1351659497460815</v>
       </c>
       <c r="E87">
-        <v>-0.06516883482536591</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.0193701326545496</v>
+      </c>
+      <c r="F87">
+        <v>0.04306623730869484</v>
+      </c>
+      <c r="G87">
+        <v>-0.01877917739054021</v>
+      </c>
+      <c r="H87">
+        <v>0.08944779594063722</v>
+      </c>
+      <c r="I87">
+        <v>0.01541511062951874</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05042770140702982</v>
+        <v>0.03258926466061229</v>
       </c>
       <c r="C88">
-        <v>0.04552808282734924</v>
+        <v>0.06923490596506433</v>
       </c>
       <c r="D88">
-        <v>0.01341314909912036</v>
+        <v>-0.01443633749612681</v>
       </c>
       <c r="E88">
-        <v>-0.02888132561979629</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02634343912255646</v>
+      </c>
+      <c r="F88">
+        <v>0.01978078100833796</v>
+      </c>
+      <c r="G88">
+        <v>0.02202682037377491</v>
+      </c>
+      <c r="H88">
+        <v>-0.0006413536367783063</v>
+      </c>
+      <c r="I88">
+        <v>0.02601333769635654</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3304288325753001</v>
+        <v>0.406801351120388</v>
       </c>
       <c r="C89">
-        <v>-0.3133101919319065</v>
+        <v>-0.1513096201348118</v>
       </c>
       <c r="D89">
-        <v>0.00470009151136328</v>
+        <v>-0.04294497343847643</v>
       </c>
       <c r="E89">
-        <v>-0.08417485320739783</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.04476020403348326</v>
+      </c>
+      <c r="F89">
+        <v>0.05989596395070505</v>
+      </c>
+      <c r="G89">
+        <v>0.04398856268316934</v>
+      </c>
+      <c r="H89">
+        <v>0.1574323014298779</v>
+      </c>
+      <c r="I89">
+        <v>-0.03855761342858202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.264678335933303</v>
+        <v>0.3206196496059509</v>
       </c>
       <c r="C90">
-        <v>-0.228964693273786</v>
+        <v>-0.1023456987384158</v>
       </c>
       <c r="D90">
-        <v>0.05340521662601939</v>
+        <v>-0.0312761730790872</v>
       </c>
       <c r="E90">
-        <v>0.00434074331271039</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.008001037870939968</v>
+      </c>
+      <c r="F90">
+        <v>-0.008599145637728704</v>
+      </c>
+      <c r="G90">
+        <v>-0.06087040358999753</v>
+      </c>
+      <c r="H90">
+        <v>0.04208715987570021</v>
+      </c>
+      <c r="I90">
+        <v>-0.003435166376376697</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1488231584756579</v>
+        <v>0.065044460714563</v>
       </c>
       <c r="C91">
-        <v>0.1908656003302272</v>
+        <v>0.2055224012852468</v>
       </c>
       <c r="D91">
-        <v>-0.1124967489092998</v>
+        <v>0.1126968488272269</v>
       </c>
       <c r="E91">
-        <v>-0.03519300089123063</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06712569185552396</v>
+      </c>
+      <c r="F91">
+        <v>0.05737884785751575</v>
+      </c>
+      <c r="G91">
+        <v>-0.01324073709745735</v>
+      </c>
+      <c r="H91">
+        <v>0.004354480433549586</v>
+      </c>
+      <c r="I91">
+        <v>-0.02530604342052106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2479626238800424</v>
+        <v>0.339935781616958</v>
       </c>
       <c r="C92">
-        <v>-0.2563141992896902</v>
+        <v>-0.1392480551404514</v>
       </c>
       <c r="D92">
-        <v>-0.06056975290905274</v>
+        <v>-0.01537513446898754</v>
       </c>
       <c r="E92">
-        <v>-0.01493574229249377</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06671485114035279</v>
+      </c>
+      <c r="F92">
+        <v>0.04253650559693404</v>
+      </c>
+      <c r="G92">
+        <v>-0.0162435777842604</v>
+      </c>
+      <c r="H92">
+        <v>0.00102994489535771</v>
+      </c>
+      <c r="I92">
+        <v>0.139874592503634</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2880375955105915</v>
+        <v>0.3354601891845607</v>
       </c>
       <c r="C93">
-        <v>-0.2424750593483772</v>
+        <v>-0.1111774696169378</v>
       </c>
       <c r="D93">
-        <v>0.005883512530839349</v>
+        <v>0.01664014152511457</v>
       </c>
       <c r="E93">
-        <v>-0.01814390853180357</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02409253685655153</v>
+      </c>
+      <c r="F93">
+        <v>0.01148839386018321</v>
+      </c>
+      <c r="G93">
+        <v>0.00508168393847279</v>
+      </c>
+      <c r="H93">
+        <v>-0.04117256588373963</v>
+      </c>
+      <c r="I93">
+        <v>0.02125952412564094</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2782533272468405</v>
+        <v>0.1197154545850921</v>
       </c>
       <c r="C94">
-        <v>0.2731970852932915</v>
+        <v>0.3373923361164899</v>
       </c>
       <c r="D94">
-        <v>-0.24620276367511</v>
+        <v>0.3561443721865336</v>
       </c>
       <c r="E94">
-        <v>0.2855464192870847</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06575467163998019</v>
+      </c>
+      <c r="F94">
+        <v>-0.1383170205035272</v>
+      </c>
+      <c r="G94">
+        <v>-0.2936958039870604</v>
+      </c>
+      <c r="H94">
+        <v>0.111495994132639</v>
+      </c>
+      <c r="I94">
+        <v>0.05417121877559278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.009425508487665232</v>
+        <v>0.01228648336538758</v>
       </c>
       <c r="C95">
-        <v>0.04159878131290804</v>
+        <v>0.06668849504334254</v>
       </c>
       <c r="D95">
-        <v>-0.0202035228787083</v>
+        <v>-0.09728712151461068</v>
       </c>
       <c r="E95">
-        <v>0.02256893793127759</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1469610625004251</v>
+      </c>
+      <c r="F95">
+        <v>-0.03363538249434614</v>
+      </c>
+      <c r="G95">
+        <v>0.2219654003907331</v>
+      </c>
+      <c r="H95">
+        <v>0.1871950930732189</v>
+      </c>
+      <c r="I95">
+        <v>0.2024381862651892</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001891076471314344</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0009746728001016106</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0004034203730285006</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003473144923524627</v>
+      </c>
+      <c r="F97">
+        <v>0.0002627664870451641</v>
+      </c>
+      <c r="G97">
+        <v>0.000530247036999792</v>
+      </c>
+      <c r="H97">
+        <v>0.001643999242562985</v>
+      </c>
+      <c r="I97">
+        <v>0.006546648926304829</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1501108304190915</v>
+        <v>0.1241385357243701</v>
       </c>
       <c r="C98">
-        <v>0.0919900746666861</v>
+        <v>0.1573711889079578</v>
       </c>
       <c r="D98">
-        <v>0.1905529711623028</v>
+        <v>-0.05670759643616536</v>
       </c>
       <c r="E98">
-        <v>0.07307305060515891</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1840383316264084</v>
+      </c>
+      <c r="F98">
+        <v>-0.2221311819903884</v>
+      </c>
+      <c r="G98">
+        <v>0.1814539086731985</v>
+      </c>
+      <c r="H98">
+        <v>-0.2760817130113102</v>
+      </c>
+      <c r="I98">
+        <v>-0.167204701276616</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.002602016452423883</v>
+        <v>0.001359657384728669</v>
       </c>
       <c r="C101">
-        <v>0.02318239998284032</v>
+        <v>0.03972501957826656</v>
       </c>
       <c r="D101">
-        <v>0.07580958086198251</v>
+        <v>-0.0906610476801307</v>
       </c>
       <c r="E101">
-        <v>-0.03672384910144112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.06692911596887692</v>
+      </c>
+      <c r="F101">
+        <v>0.02698922002377459</v>
+      </c>
+      <c r="G101">
+        <v>0.09994357826670597</v>
+      </c>
+      <c r="H101">
+        <v>0.1398418475995799</v>
+      </c>
+      <c r="I101">
+        <v>0.03482630466086103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1021964371384982</v>
+        <v>0.02622211533189129</v>
       </c>
       <c r="C102">
-        <v>0.1603275586407636</v>
+        <v>0.1459025866599824</v>
       </c>
       <c r="D102">
-        <v>-0.05310259244210486</v>
+        <v>0.1055349887999586</v>
       </c>
       <c r="E102">
-        <v>0.1060923779286733</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04351145279969892</v>
+      </c>
+      <c r="F102">
+        <v>-0.08256651316383337</v>
+      </c>
+      <c r="G102">
+        <v>0.01773383889107133</v>
+      </c>
+      <c r="H102">
+        <v>0.03022017268768407</v>
+      </c>
+      <c r="I102">
+        <v>-0.008262307112562824</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
